--- a/cv4DatabaseSarMdac.xlsx
+++ b/cv4DatabaseSarMdac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,6 +1575,694 @@
         <v>13906</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:47:49</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>248.8600624999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4346.7199375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4346.0451875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4343.546437499999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4344.299375000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4341.2450625</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4342.294249999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4340.559999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.766375</v>
+      </c>
+      <c r="O7" t="n">
+        <v>23.68637499999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31.73474375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63.13996874999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>126.7285</v>
+      </c>
+      <c r="S7" t="n">
+        <v>220.56345</v>
+      </c>
+      <c r="T7" t="n">
+        <v>127.6668125</v>
+      </c>
+      <c r="U7" t="n">
+        <v>255.8805937500001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>383.4724062500001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>638.7103437500001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1021.64271875</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2040.66253125</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3572.009156250001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>995</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>18382</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>35767</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>53141</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70518</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>87883</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>105252</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>122614</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>859</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:51:33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>245.1221874999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4344.124374999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4343.6924375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4343.6749375</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4344.764375000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4343.450875</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4343.3510625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4340.3554375</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15.38921875</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23.7659375</v>
+      </c>
+      <c r="P8" t="n">
+        <v>31.5655075</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>62.57537500000002</v>
+      </c>
+      <c r="R8" t="n">
+        <v>125.72425</v>
+      </c>
+      <c r="S8" t="n">
+        <v>218.9408437499999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>124.104485</v>
+      </c>
+      <c r="U8" t="n">
+        <v>249.1102</v>
+      </c>
+      <c r="V8" t="n">
+        <v>372.8925849999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>621.3553537499999</v>
+      </c>
+      <c r="X8" t="n">
+        <v>993.6198824999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1985.56332</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3474.095377499999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18357</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>35732</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>53106</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>70486</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>87859</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>105233</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>122594</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>503</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>876</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:55:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>222.0330625000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4320.3048125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4318.075375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4317.44125</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4320.3628125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4318.131875</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4317.402125000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4315.893</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15.6810625</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23.87178125</v>
+      </c>
+      <c r="P9" t="n">
+        <v>31.93940625000002</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>63.33828125000001</v>
+      </c>
+      <c r="R9" t="n">
+        <v>126.74009375</v>
+      </c>
+      <c r="S9" t="n">
+        <v>220.54265625</v>
+      </c>
+      <c r="T9" t="n">
+        <v>125.8788125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>253.06771875</v>
+      </c>
+      <c r="V9" t="n">
+        <v>379.2184687500001</v>
+      </c>
+      <c r="W9" t="n">
+        <v>631.8977812500002</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1009.48359375</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2019.209375000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3533.436375000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>888</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18169</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>35442</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>52711</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>69993</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>87265</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>104535</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>121799</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>499</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>868</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>495</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3973</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>7947</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:59:49</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>238.3072499999998</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4335.4973125</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4334.916562500001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4335.00675</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4337.051750000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4334.8475</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4334.6551875</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4331.724625</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15.93534375</v>
+      </c>
+      <c r="O10" t="n">
+        <v>23.64365625</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31.85140625</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>63.30777499999997</v>
+      </c>
+      <c r="R10" t="n">
+        <v>126.90527375</v>
+      </c>
+      <c r="S10" t="n">
+        <v>220.95479</v>
+      </c>
+      <c r="T10" t="n">
+        <v>127.952395</v>
+      </c>
+      <c r="U10" t="n">
+        <v>256.83404625</v>
+      </c>
+      <c r="V10" t="n">
+        <v>384.8704225</v>
+      </c>
+      <c r="W10" t="n">
+        <v>641.16944625</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1025.200385</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2048.60153875</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3585.6869075</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>953</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>18295</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>35635</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>52975</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70323</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>87663</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>105001</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>122328</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>492</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>857</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>13906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cv4DatabaseSarMdac.xlsx
+++ b/cv4DatabaseSarMdac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,6 +2263,350 @@
         <v>13906</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3-9-2022 11:45:20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>242.2610625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4339.453375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4339.4090625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4338.7996875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4340.3539375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4338.75225</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4338.9178125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4336.4964375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.05678125</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23.93606249999999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>31.96037500000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.58449874999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>127.1353625</v>
+      </c>
+      <c r="S11" t="n">
+        <v>221.59961</v>
+      </c>
+      <c r="T11" t="n">
+        <v>129.787545</v>
+      </c>
+      <c r="U11" t="n">
+        <v>260.7537975</v>
+      </c>
+      <c r="V11" t="n">
+        <v>390.68310375</v>
+      </c>
+      <c r="W11" t="n">
+        <v>650.8980712499999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1040.56667625</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2078.95582625</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3639.235605</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>969</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>18327</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>35684</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>53040</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70401</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>87756</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>105112</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>122458</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>91</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>243</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>847</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3-9-2022 12:4:11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61</v>
+      </c>
+      <c r="C12" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>272.0392499999998</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4368.728</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4369.676937499999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4369.562125</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4371.781</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4369.794625</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4369.190500000001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4366.098875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>16.01034375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>23.87509375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>32.0115625</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>63.32156249999998</v>
+      </c>
+      <c r="R12" t="n">
+        <v>127.2145625</v>
+      </c>
+      <c r="S12" t="n">
+        <v>221.55065625</v>
+      </c>
+      <c r="T12" t="n">
+        <v>130.41603125</v>
+      </c>
+      <c r="U12" t="n">
+        <v>261.3429062500001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>391.87328125</v>
+      </c>
+      <c r="W12" t="n">
+        <v>652.2020625</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1043.3900625</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2084.459375</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3648.59259375</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>18563</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>36042</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>53520</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>71007</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>88486</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>105963</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>123427</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>91</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>241</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>485</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>844</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1494</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>13906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cv4DatabaseSarMdac.xlsx
+++ b/cv4DatabaseSarMdac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,6 +1059,5166 @@
         <v>13906</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3/9/2022 19:49:50</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300.4212500000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4396.506687499999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4398.1413125</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4397.2214375</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4398.747</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4397.341437499999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4396.868625</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4394.637</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.78659375</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23.16393750000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>30.76142374999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>61.25178125</v>
+      </c>
+      <c r="R4" t="n">
+        <v>122.4401175</v>
+      </c>
+      <c r="S4" t="n">
+        <v>213.66637625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>123.43246875</v>
+      </c>
+      <c r="U4" t="n">
+        <v>247.9428437500001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>371.1831875000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>618.4423125000002</v>
+      </c>
+      <c r="X4" t="n">
+        <v>988.6840000000002</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1974.77409375</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3457.059562500001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1202</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>18788</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>36380</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>53969</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>71564</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>89154</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>106741</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>124320</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>93</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>859</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7943</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3/9/2022 19:53:36</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>253.9689375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4351.209625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4351.293187499999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4351.265</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4350.9641875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4349.8184375</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4349.90075</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4346.7156875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.70428125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>23.53468249999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30.95921875000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>61.71809375000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>124.008625</v>
+      </c>
+      <c r="S5" t="n">
+        <v>216.12153125</v>
+      </c>
+      <c r="T5" t="n">
+        <v>124.9714999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>250.6408749999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>375.2542812499998</v>
+      </c>
+      <c r="W5" t="n">
+        <v>625.3895312499997</v>
+      </c>
+      <c r="X5" t="n">
+        <v>999.8647187499994</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1998.019312499999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3497.560656249998</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1016</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>18421</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>35826</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>53231</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70635</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>88034</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>105434</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>122821</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>859</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3975</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3/9/2022 19:57:55</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>261.7027500000002</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4359.294875</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4358.7781875</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4357.3240625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4359.5863125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4356.93025</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4357.8551875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4355.095125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13.018875</v>
+      </c>
+      <c r="O6" t="n">
+        <v>23.69868750000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>26.75603125000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>52.95353125000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>106.16109375</v>
+      </c>
+      <c r="S6" t="n">
+        <v>185.1305625</v>
+      </c>
+      <c r="T6" t="n">
+        <v>87.66506249999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>175.94746875</v>
+      </c>
+      <c r="V6" t="n">
+        <v>263.7209375</v>
+      </c>
+      <c r="W6" t="n">
+        <v>438.7390312499999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>701.5531562499999</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1401.54933375</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2453.52608375</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1047</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18484</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>35919</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>53348</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>70787</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>88214</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>105646</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>123066</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>74</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>134</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>152</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>602</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1495</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:1:49</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>251.5069374999998</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4349.101500000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4347.9259375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4344.985375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4347.5550625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4343.6505</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4344.897375</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4343.1489375</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.9134375</v>
+      </c>
+      <c r="O7" t="n">
+        <v>23.70834374999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31.92966875</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63.37596875000001</v>
+      </c>
+      <c r="R7" t="n">
+        <v>126.8019774999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>220.8818</v>
+      </c>
+      <c r="T7" t="n">
+        <v>128.242</v>
+      </c>
+      <c r="U7" t="n">
+        <v>257.122875</v>
+      </c>
+      <c r="V7" t="n">
+        <v>385.20903125</v>
+      </c>
+      <c r="W7" t="n">
+        <v>641.4804375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1026.13415625</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2050.06990625</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3588.23359375</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1006</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>18402</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>35794</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>53174</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70564</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>87939</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>105318</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>122691</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>491</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>856</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:5:45</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>248.5331874999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4347.543</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4347.2241875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4347.0065625</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4348.572812500001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4348.0296875</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4347.7185625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4345.088937500001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15.395375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23.77515624999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>31.32670249999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>61.93781250000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>124.43296875</v>
+      </c>
+      <c r="S8" t="n">
+        <v>216.9038750000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>123.29295625</v>
+      </c>
+      <c r="U8" t="n">
+        <v>247.330575</v>
+      </c>
+      <c r="V8" t="n">
+        <v>370.3201100000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>617.0031812500001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>986.6769725000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1971.82474375</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3450.246667500001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>994</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18384</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>35773</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>53161</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>70556</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>87948</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>105339</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>122719</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>502</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>874</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>7947</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:10:2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>226.9750000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4324.2719375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4322.2628125</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4322.12925</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4324.6528125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4322.8084375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4322.880312499999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4320.89075</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15.91165625</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23.87845000000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>31.98471875</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>63.11021874999999</v>
+      </c>
+      <c r="R9" t="n">
+        <v>126.41709375</v>
+      </c>
+      <c r="S9" t="n">
+        <v>220.0240625</v>
+      </c>
+      <c r="T9" t="n">
+        <v>126.2883125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>253.5023437500001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>380.1262187500001</v>
+      </c>
+      <c r="W9" t="n">
+        <v>633.2161250000001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1011.728875</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2023.5875625</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3541.429468750001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>908</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18205</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>35494</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>52783</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>70081</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>87372</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>104664</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>121947</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>248</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>496</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>864</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>995</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3973</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>7946</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:13:42</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>241.969625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4339.278</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4338.5965625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4338.543500000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4339.7909375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4338.0573125</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4337.920249999999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4335.4115</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16.08525</v>
+      </c>
+      <c r="O10" t="n">
+        <v>24.08846874999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>32.05421875</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>63.91488125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>127.88975</v>
+      </c>
+      <c r="S10" t="n">
+        <v>222.8642225</v>
+      </c>
+      <c r="T10" t="n">
+        <v>129.755275</v>
+      </c>
+      <c r="U10" t="n">
+        <v>260.30276875</v>
+      </c>
+      <c r="V10" t="n">
+        <v>390.2366125000001</v>
+      </c>
+      <c r="W10" t="n">
+        <v>650.0753500000001</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1039.28383125</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2076.8111125</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3634.980556250001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>968</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>18325</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>35679</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>53034</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70393</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>87745</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>105097</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>122438</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>489</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>853</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:17:22</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>271.1140625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4367.463937500001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4368.573</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4368.664375</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4370.372375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4368.257375</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4368.237375000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4364.760375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15.98390625</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23.95625</v>
+      </c>
+      <c r="P11" t="n">
+        <v>32.01053125</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.2144375</v>
+      </c>
+      <c r="R11" t="n">
+        <v>127.10434375</v>
+      </c>
+      <c r="S11" t="n">
+        <v>221.41634375</v>
+      </c>
+      <c r="T11" t="n">
+        <v>129.9421</v>
+      </c>
+      <c r="U11" t="n">
+        <v>260.73217625</v>
+      </c>
+      <c r="V11" t="n">
+        <v>390.7141512499999</v>
+      </c>
+      <c r="W11" t="n">
+        <v>650.2690149999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1040.2390025</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2077.891601249999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3637.544808749999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>18554</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>36029</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>53503</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70985</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>88458</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>105931</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>123390</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>242</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>846</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1494</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:21:23</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>299.8283125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4397.0419375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4397.850375</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4397.41175</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4399.0346875</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4396.9106875</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4396.570875</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4394.790875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15.5874375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22.6889375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29.89736</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>59.65456249999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>119.10475125</v>
+      </c>
+      <c r="S12" t="n">
+        <v>207.91543</v>
+      </c>
+      <c r="T12" t="n">
+        <v>120.1614374999999</v>
+      </c>
+      <c r="U12" t="n">
+        <v>241.2994062499999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>361.1555624999999</v>
+      </c>
+      <c r="W12" t="n">
+        <v>601.9255312499997</v>
+      </c>
+      <c r="X12" t="n">
+        <v>962.1511249999996</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1921.921749999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3364.144593749999</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>18787</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>36379</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>53969</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>71565</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>89152</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>106739</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>124318</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>247</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>492</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>859</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:26:36</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>253.8441250000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4351.541625</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4350.781375</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4350.2956875</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4351.0514375</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4348.4014375</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4349.4491875</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4347.4400625</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15.73078125</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23.37022</v>
+      </c>
+      <c r="P13" t="n">
+        <v>30.85778125000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60.8829375</v>
+      </c>
+      <c r="R13" t="n">
+        <v>122.07340625</v>
+      </c>
+      <c r="S13" t="n">
+        <v>212.50096875</v>
+      </c>
+      <c r="T13" t="n">
+        <v>121.67403125</v>
+      </c>
+      <c r="U13" t="n">
+        <v>244.3331875</v>
+      </c>
+      <c r="V13" t="n">
+        <v>365.8031875</v>
+      </c>
+      <c r="W13" t="n">
+        <v>609.8050937500001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>974.9390312500002</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1947.95059375</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3410.040593750001</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>18422</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>35825</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>53226</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>70630</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>88024</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>105421</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>122811</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>248</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>498</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>867</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:30:17</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>262.092875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4359.293625</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4358.232437500001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4357.568875</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4359.473625000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4356.8914375</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4357.814</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4355.617375</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.99734375</v>
+      </c>
+      <c r="O14" t="n">
+        <v>23.70628125000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>26.8334375</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>53.21053124999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>106.7383125</v>
+      </c>
+      <c r="S14" t="n">
+        <v>186.04178125</v>
+      </c>
+      <c r="T14" t="n">
+        <v>88.15209374999999</v>
+      </c>
+      <c r="U14" t="n">
+        <v>176.90375</v>
+      </c>
+      <c r="V14" t="n">
+        <v>265.165375</v>
+      </c>
+      <c r="W14" t="n">
+        <v>441.36103125</v>
+      </c>
+      <c r="X14" t="n">
+        <v>705.5200624999999</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1409.7210625</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2467.82235625</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1048</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>18486</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>35918</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>53349</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>70787</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>88214</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>105645</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>123068</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>56</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>73</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>134</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>601</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1048</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1494</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:33:59</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>251.2199375</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4349.04025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4348.0124375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4345.162625000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4347.380312499999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4344.1135</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4344.80075</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4343.314062500001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15.79615625</v>
+      </c>
+      <c r="O15" t="n">
+        <v>23.28396875</v>
+      </c>
+      <c r="P15" t="n">
+        <v>31.29252124999999</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>62.08368749999998</v>
+      </c>
+      <c r="R15" t="n">
+        <v>124.4616275</v>
+      </c>
+      <c r="S15" t="n">
+        <v>216.87059</v>
+      </c>
+      <c r="T15" t="n">
+        <v>126.37965625</v>
+      </c>
+      <c r="U15" t="n">
+        <v>253.42415625</v>
+      </c>
+      <c r="V15" t="n">
+        <v>379.7185000000001</v>
+      </c>
+      <c r="W15" t="n">
+        <v>632.4648125</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1011.67046875</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2021.1214375</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3537.281</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1005</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18401</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>35793</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>53174</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>70563</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>87940</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>105319</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>122692</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>244</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>489</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>853</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>7946</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:42:16</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>248.2058750000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4347.514375</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4347.3129375</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4347.555937499999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4348.696875</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4347.1968125</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4347.035250000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4344.720375000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15.2879375</v>
+      </c>
+      <c r="O16" t="n">
+        <v>23.824375</v>
+      </c>
+      <c r="P16" t="n">
+        <v>31.22784875000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>61.87521875</v>
+      </c>
+      <c r="R16" t="n">
+        <v>124.235125</v>
+      </c>
+      <c r="S16" t="n">
+        <v>216.70671875</v>
+      </c>
+      <c r="T16" t="n">
+        <v>123.3164062500001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>247.1885937500001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>370.3509062500002</v>
+      </c>
+      <c r="W16" t="n">
+        <v>617.0985625000003</v>
+      </c>
+      <c r="X16" t="n">
+        <v>986.7568125000005</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1972.038500000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3450.244187500001</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>993</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>18383</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>35772</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>53162</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>70557</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>87946</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>105334</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>122713</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>873</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:46:6</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>226.6456874999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4324.067875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4321.741812499999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4321.8250625</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4324.834999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4322.65575</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4322.33525</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4320.530437500001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15.75646875</v>
+      </c>
+      <c r="O17" t="n">
+        <v>23.752045</v>
+      </c>
+      <c r="P17" t="n">
+        <v>31.53609375</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>62.198625</v>
+      </c>
+      <c r="R17" t="n">
+        <v>124.71934375</v>
+      </c>
+      <c r="S17" t="n">
+        <v>216.963625</v>
+      </c>
+      <c r="T17" t="n">
+        <v>123.6975625000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>248.3405937500001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>372.3577500000002</v>
+      </c>
+      <c r="W17" t="n">
+        <v>620.4035937500003</v>
+      </c>
+      <c r="X17" t="n">
+        <v>991.2107187500005</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1982.524031250001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3469.137531250001</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>907</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18203</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>35490</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>52777</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>70076</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>87367</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>104656</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>121939</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>870</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>995</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3973</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>7947</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:49:49</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>242.0320000000002</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4339.488125</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4338.8645</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4339.112625</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4340.635937499999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4338.736875000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4338.5965</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4335.87725</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.08015625</v>
+      </c>
+      <c r="O18" t="n">
+        <v>23.76934375</v>
+      </c>
+      <c r="P18" t="n">
+        <v>31.65559375</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>63.06790875000002</v>
+      </c>
+      <c r="R18" t="n">
+        <v>126.38671875</v>
+      </c>
+      <c r="S18" t="n">
+        <v>220.43140875</v>
+      </c>
+      <c r="T18" t="n">
+        <v>127.57562875</v>
+      </c>
+      <c r="U18" t="n">
+        <v>256.00159875</v>
+      </c>
+      <c r="V18" t="n">
+        <v>383.66354</v>
+      </c>
+      <c r="W18" t="n">
+        <v>639.1941</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1021.76682375</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2042.0850725</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3574.88630125</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>968</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>18326</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>35682</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>53038</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70401</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>87755</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>105110</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>122453</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>492</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>857</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3975</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7943</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3/9/2022 20:57:33</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>270.5945625000002</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4367.0263125</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4368.553562499999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4367.749937500001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4370.1460625</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4367.791875000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4367.38425</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4364.268375000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16.09684375</v>
+      </c>
+      <c r="O19" t="n">
+        <v>24.01306249999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>32.07796875</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>63.70524999999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>127.77475</v>
+      </c>
+      <c r="S19" t="n">
+        <v>222.46465625</v>
+      </c>
+      <c r="T19" t="n">
+        <v>130.19152</v>
+      </c>
+      <c r="U19" t="n">
+        <v>261.41029</v>
+      </c>
+      <c r="V19" t="n">
+        <v>391.4074562500001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>651.9439762500001</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1042.59383125</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2082.73475875</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3645.988810000001</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1082</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>18550</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>36025</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>53496</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>70976</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>88447</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>105917</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>123374</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>243</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>487</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>848</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:1:19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300.1528125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4396.326875000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4397.99275</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4397.783125</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4399.20575</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4397.2045</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4396.6295625</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4393.99675</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15.6905625</v>
+      </c>
+      <c r="O20" t="n">
+        <v>23.00721875</v>
+      </c>
+      <c r="P20" t="n">
+        <v>30.42156625</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>60.47887500000002</v>
+      </c>
+      <c r="R20" t="n">
+        <v>120.74846</v>
+      </c>
+      <c r="S20" t="n">
+        <v>210.52508125</v>
+      </c>
+      <c r="T20" t="n">
+        <v>120.7717187500001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>242.6015937500002</v>
+      </c>
+      <c r="V20" t="n">
+        <v>363.2050937500003</v>
+      </c>
+      <c r="W20" t="n">
+        <v>605.2616875000004</v>
+      </c>
+      <c r="X20" t="n">
+        <v>967.6606562500008</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1933.009718750001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3383.554218750003</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1201</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18786</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>36378</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>53969</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>71566</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>89155</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>106741</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>124317</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>125</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>496</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>865</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:5:27</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>253.760125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4351.7348125</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4351.0899375</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4350.566875</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4350.404625</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4348.9195</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4350.02</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4346.83275</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.7605625</v>
+      </c>
+      <c r="O21" t="n">
+        <v>23.5468225</v>
+      </c>
+      <c r="P21" t="n">
+        <v>31.0575625</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>61.4399375</v>
+      </c>
+      <c r="R21" t="n">
+        <v>123.26396875</v>
+      </c>
+      <c r="S21" t="n">
+        <v>214.980625</v>
+      </c>
+      <c r="T21" t="n">
+        <v>124.24996875</v>
+      </c>
+      <c r="U21" t="n">
+        <v>248.983875</v>
+      </c>
+      <c r="V21" t="n">
+        <v>372.92009375</v>
+      </c>
+      <c r="W21" t="n">
+        <v>621.339375</v>
+      </c>
+      <c r="X21" t="n">
+        <v>993.5043750000001</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1985.22265625</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3475.3290625</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>18422</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>35826</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>53229</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>70630</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>88026</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>105426</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>122813</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>860</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>3975</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:9:38</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>262.0891250000002</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4359.58075</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4358.8000625</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4357.601000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4359.980125</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4357.669500000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4358.1795625</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4355.517374999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.90984375</v>
+      </c>
+      <c r="O22" t="n">
+        <v>23.74084375</v>
+      </c>
+      <c r="P22" t="n">
+        <v>26.62515625</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>52.75121875000002</v>
+      </c>
+      <c r="R22" t="n">
+        <v>105.6371875</v>
+      </c>
+      <c r="S22" t="n">
+        <v>184.1864375000001</v>
+      </c>
+      <c r="T22" t="n">
+        <v>86.39499999999998</v>
+      </c>
+      <c r="U22" t="n">
+        <v>173.31765625</v>
+      </c>
+      <c r="V22" t="n">
+        <v>260.06590625</v>
+      </c>
+      <c r="W22" t="n">
+        <v>432.7267187499999</v>
+      </c>
+      <c r="X22" t="n">
+        <v>691.8180312499999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1382.26814875</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2419.28596125</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1048</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>18487</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>35922</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>53352</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>70792</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>88223</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>105656</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>123078</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>74</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>136</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>153</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>303</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>607</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1059</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1495</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:13:17</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>250.7584374999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4348.7023125</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4347.5444375</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4345.3553125</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4346.4581875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4343.0125</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4344.0061875</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4342.5665625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15.930375</v>
+      </c>
+      <c r="O23" t="n">
+        <v>23.71399999999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>31.70025249999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>62.96534375000001</v>
+      </c>
+      <c r="R23" t="n">
+        <v>126.13038625</v>
+      </c>
+      <c r="S23" t="n">
+        <v>219.7541825</v>
+      </c>
+      <c r="T23" t="n">
+        <v>127.96878125</v>
+      </c>
+      <c r="U23" t="n">
+        <v>256.47325</v>
+      </c>
+      <c r="V23" t="n">
+        <v>384.4850625</v>
+      </c>
+      <c r="W23" t="n">
+        <v>640.1450312499999</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1024.04384375</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2045.82303125</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3580.921124999999</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1003</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>18398</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>35788</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>53169</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>70555</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>87927</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>105303</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>122674</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>490</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>853</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:18:11</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>248.1883124999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4346.8625625</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4347.564312500001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4347.020125000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4348.232</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4347.5510625</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4347.193625</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4344.7275625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15.36084375</v>
+      </c>
+      <c r="O24" t="n">
+        <v>23.86690624999999</v>
+      </c>
+      <c r="P24" t="n">
+        <v>31.37025500000001</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>62.02528125</v>
+      </c>
+      <c r="R24" t="n">
+        <v>124.42921875</v>
+      </c>
+      <c r="S24" t="n">
+        <v>217.1125625</v>
+      </c>
+      <c r="T24" t="n">
+        <v>123.6016475</v>
+      </c>
+      <c r="U24" t="n">
+        <v>247.8628287499999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>371.2108924999999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>618.4721187499999</v>
+      </c>
+      <c r="X24" t="n">
+        <v>989.1763699999999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1976.6712725</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3458.53666875</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>993</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>18380</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>35770</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>53159</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>70551</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>87942</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>105330</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>122709</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>873</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:21:52</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>226.4038125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4324.040125</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4322.47925</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4321.811125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4324.36825</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4322.9151875</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4322.097125</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4320.560375</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15.83765625</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23.72318250000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>31.47334375</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62.51268749999998</v>
+      </c>
+      <c r="R25" t="n">
+        <v>125.39221875</v>
+      </c>
+      <c r="S25" t="n">
+        <v>218.27715625</v>
+      </c>
+      <c r="T25" t="n">
+        <v>125.1228750000001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>251.1552187500001</v>
+      </c>
+      <c r="V25" t="n">
+        <v>376.7366875000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>627.4893125000003</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1002.8259375</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2005.643187500001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3509.008281250001</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>906</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>18202</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>35492</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>52779</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>70076</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>87368</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>104656</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>121939</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>125</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>248</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>497</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>865</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>995</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>3974</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:26:3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>241.8108749999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4338.9750625</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4338.6401875</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4339.072375</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4340.3159375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4338.48225</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4338.651625</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4335.9395625</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16.014375</v>
+      </c>
+      <c r="O26" t="n">
+        <v>23.88765624999999</v>
+      </c>
+      <c r="P26" t="n">
+        <v>32.06068750000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>64.05484749999999</v>
+      </c>
+      <c r="R26" t="n">
+        <v>128.3105625</v>
+      </c>
+      <c r="S26" t="n">
+        <v>223.71952125</v>
+      </c>
+      <c r="T26" t="n">
+        <v>129.8639499999999</v>
+      </c>
+      <c r="U26" t="n">
+        <v>260.5778187499999</v>
+      </c>
+      <c r="V26" t="n">
+        <v>390.4301399999998</v>
+      </c>
+      <c r="W26" t="n">
+        <v>650.5673962499998</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1039.961319999999</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2078.425956249999</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3637.994034999998</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>967</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>18323</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>35678</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>53034</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>70395</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>87749</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>105104</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>122448</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>91</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>245</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>490</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>855</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>3975</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:29:55</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>270.7268124999998</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4367.193</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4369.063999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4368.534874999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4369.602</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4368.47525</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4367.8836875</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4364.439625000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16.06059375</v>
+      </c>
+      <c r="O27" t="n">
+        <v>24.34590625</v>
+      </c>
+      <c r="P27" t="n">
+        <v>32.56146875</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>64.5654375</v>
+      </c>
+      <c r="R27" t="n">
+        <v>129.68984375</v>
+      </c>
+      <c r="S27" t="n">
+        <v>225.89640625</v>
+      </c>
+      <c r="T27" t="n">
+        <v>132.62720375</v>
+      </c>
+      <c r="U27" t="n">
+        <v>266.1388425</v>
+      </c>
+      <c r="V27" t="n">
+        <v>398.5786087500001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>663.6702375000001</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1061.43098875</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2120.5990975</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3712.631476250001</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1083</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>18552</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>36028</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>53502</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>70980</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>88454</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>105926</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>123384</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>91</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>122</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>242</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>846</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>7943</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:34:0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300.3593125</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4396.8780625</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4398.0481875</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4397.3278125</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4398.851625</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4397.110187499999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4396.328125</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4394.709812499999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15.559</v>
+      </c>
+      <c r="O28" t="n">
+        <v>22.79053125</v>
+      </c>
+      <c r="P28" t="n">
+        <v>30.02495</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>59.74003125</v>
+      </c>
+      <c r="R28" t="n">
+        <v>119.658725</v>
+      </c>
+      <c r="S28" t="n">
+        <v>208.6281125</v>
+      </c>
+      <c r="T28" t="n">
+        <v>120.43665625</v>
+      </c>
+      <c r="U28" t="n">
+        <v>241.97840625</v>
+      </c>
+      <c r="V28" t="n">
+        <v>362.1710624999999</v>
+      </c>
+      <c r="W28" t="n">
+        <v>603.58871875</v>
+      </c>
+      <c r="X28" t="n">
+        <v>964.91128125</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1927.34484375</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3373.862875</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1201</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>18789</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>36381</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>53970</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>71566</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>89154</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>106740</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>124318</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>860</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:38:12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>253.6685</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4350.971625</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4350.949125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4349.7440625</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4350.9098125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4348.7168125</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4349.66125</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4347.492625</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.7584375</v>
+      </c>
+      <c r="O29" t="n">
+        <v>23.65875</v>
+      </c>
+      <c r="P29" t="n">
+        <v>31.34318750000001</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>62.07715624999999</v>
+      </c>
+      <c r="R29" t="n">
+        <v>124.524825</v>
+      </c>
+      <c r="S29" t="n">
+        <v>216.90746875</v>
+      </c>
+      <c r="T29" t="n">
+        <v>125.22190625</v>
+      </c>
+      <c r="U29" t="n">
+        <v>251.1092187500001</v>
+      </c>
+      <c r="V29" t="n">
+        <v>376.0850312500002</v>
+      </c>
+      <c r="W29" t="n">
+        <v>626.7311875000001</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1002.15965625</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2002.396437500001</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3505.302468750001</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>18419</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>35822</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>53221</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>70625</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>88020</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>105418</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>122808</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>494</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>860</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:42:19</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>261.7660000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4359.3289375</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4358.593749999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4357.785062499999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4359.22075</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4356.713874999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4358.263375</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4355.0344375</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.91590625</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23.81406249999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>26.51692874999998</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>52.73878125</v>
+      </c>
+      <c r="R30" t="n">
+        <v>105.820625</v>
+      </c>
+      <c r="S30" t="n">
+        <v>184.3846562500001</v>
+      </c>
+      <c r="T30" t="n">
+        <v>85.57737500000002</v>
+      </c>
+      <c r="U30" t="n">
+        <v>171.773</v>
+      </c>
+      <c r="V30" t="n">
+        <v>257.612125</v>
+      </c>
+      <c r="W30" t="n">
+        <v>428.6731250000001</v>
+      </c>
+      <c r="X30" t="n">
+        <v>685.2858125000001</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1369.0936</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2396.5375375</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1047</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>18484</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>35919</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>53350</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>70787</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>88214</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>105647</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>123067</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>58</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>138</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>154</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>306</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>614</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1495</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>7944</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:46:12</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>250.794875</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4348.710125</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4347.385562500001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4345.0545</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4346.757875</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4343.3936875</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4344.4745</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4342.644249999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.96884375</v>
+      </c>
+      <c r="O31" t="n">
+        <v>23.8153125</v>
+      </c>
+      <c r="P31" t="n">
+        <v>31.6302225</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>62.67793750000001</v>
+      </c>
+      <c r="R31" t="n">
+        <v>125.6415</v>
+      </c>
+      <c r="S31" t="n">
+        <v>218.91892875</v>
+      </c>
+      <c r="T31" t="n">
+        <v>126.573625</v>
+      </c>
+      <c r="U31" t="n">
+        <v>253.64421875</v>
+      </c>
+      <c r="V31" t="n">
+        <v>380.2753124999999</v>
+      </c>
+      <c r="W31" t="n">
+        <v>633.3762499999999</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1013.00353125</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2023.77728125</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3542.27940625</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1003</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>18398</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>35788</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>53168</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>70555</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>87928</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>105306</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>122677</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>93</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>246</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>493</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>859</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>2486</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>7945</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:49:57</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>248.42525</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4348.254000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4347.676937499999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4347.355687499999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4349.0324375</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4347.879687500001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4347.029625</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4344.764187500001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15.27846875</v>
+      </c>
+      <c r="O32" t="n">
+        <v>23.77637500000001</v>
+      </c>
+      <c r="P32" t="n">
+        <v>31.29560125000001</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>61.97265625000001</v>
+      </c>
+      <c r="R32" t="n">
+        <v>124.34659375</v>
+      </c>
+      <c r="S32" t="n">
+        <v>216.9633125</v>
+      </c>
+      <c r="T32" t="n">
+        <v>122.8019062499999</v>
+      </c>
+      <c r="U32" t="n">
+        <v>246.4291799999999</v>
+      </c>
+      <c r="V32" t="n">
+        <v>368.9110787499998</v>
+      </c>
+      <c r="W32" t="n">
+        <v>614.6913987499997</v>
+      </c>
+      <c r="X32" t="n">
+        <v>983.0492974999995</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1964.551607499999</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3437.342462499998</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>994</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>18387</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>35777</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>53167</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>70563</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>87954</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>105343</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>122722</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>127</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>503</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>878</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>497</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>997</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>3977</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3/9/2022 21:53:39</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>226.3748125</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4324.641874999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4322.7855</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4321.8156875</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4325.11175</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4322.7835625</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4322.3998125</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4320.049875</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15.6254375</v>
+      </c>
+      <c r="O33" t="n">
+        <v>23.82581875000001</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31.36321874999999</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>61.86693749999999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>123.939875</v>
+      </c>
+      <c r="S33" t="n">
+        <v>215.67146875</v>
+      </c>
+      <c r="T33" t="n">
+        <v>123.0811875</v>
+      </c>
+      <c r="U33" t="n">
+        <v>247.36671875</v>
+      </c>
+      <c r="V33" t="n">
+        <v>370.9675</v>
+      </c>
+      <c r="W33" t="n">
+        <v>618.20934375</v>
+      </c>
+      <c r="X33" t="n">
+        <v>987.6941562500001</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1975.54315625</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3456.60390625</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>905</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>18204</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>35495</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>52782</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>70083</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>87374</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>104664</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>121944</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>499</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>868</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>495</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>995</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>3973</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>7948</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>13906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
